--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adobe Assignments\EDS related\blocksDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A17CF4CC-2FE7-4FFC-A7AB-B2B2A6B40369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E2D85-3AD8-4015-92C8-70E1ACAD54C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="helix-default" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,22 +27,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Destination</t>
-  </si>
-  <si>
     <t>/code</t>
   </si>
   <si>
     <t>/search</t>
   </si>
   <si>
-    <t>www.google.com</t>
-  </si>
-  <si>
     <t>https://github.com/dimplej/blocksDemo.git</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>https://www.google.com</t>
   </si>
 </sst>
 </file>
@@ -384,26 +384,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/redirects.xlsx
+++ b/redirects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Adobe Assignments\EDS related\blocksDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244E2D85-3AD8-4015-92C8-70E1ACAD54C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D2B770E-F123-4AB0-99B4-94950A473CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="9772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
   <si>
     <t>/code</t>
   </si>
@@ -36,13 +42,13 @@
     <t>https://github.com/dimplej/blocksDemo.git</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>/flights</t>
+  </si>
+  <si>
+    <t>https://www.goindigo.in</t>
   </si>
 </sst>
 </file>
@@ -371,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -384,32 +390,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{12D8ADB3-F96B-4E7A-BB1E-638D30B1555A}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{D01783EC-C36F-4E46-8BB8-29560B32C735}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{AB68104F-3D98-4A8A-9AC6-0D0F53134509}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
